--- a/downloaded_files/CMPS446_Tutorial-35548.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35548.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -292,6 +292,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45921.9196888542</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35548.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35548.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
   </x:si>
   <x:si>
     <x:t>1220016</x:t>
@@ -416,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1319,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647793634</x:v>
+        <x:v>45927.071833912</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.6647793634</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.7443521644</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45913.7443521644</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.9111371528</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45909.9111371528</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45912.3308900463</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45916.495316088</x:v>
+        <x:v>45912.3308900463</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.6647476505</x:v>
+        <x:v>45916.495316088</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1735,7 +1744,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45921.9196888542</x:v>
+        <x:v>45906.6647476505</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1752,6 +1761,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45921.9196888542</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS446_Tutorial-35548.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35548.xlsx
@@ -141,15 +141,6 @@
     <x:t>Saifeldin Wael Elsaid Hasan Darwesh</x:t>
   </x:si>
   <x:si>
-    <x:t>1210248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن احمد محمد احمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Ahmed Mohamed Ahmed Mahmoud</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220111</x:t>
   </x:si>
   <x:si>
@@ -283,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Raed Sayed Foda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو ابراهيم المصري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed amr ebrahim elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>
@@ -1200,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.1112114583</x:v>
+        <x:v>45906.7062605324</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.7062605324</x:v>
+        <x:v>45906.6644449074</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6644449074</x:v>
+        <x:v>45906.6644033912</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6644033912</x:v>
+        <x:v>45927.071833912</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.071833912</x:v>
+        <x:v>45906.6647793634</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647793634</x:v>
+        <x:v>45906.6647810185</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647810185</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45913.7443521644</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.7443521644</x:v>
+        <x:v>45906.6644706366</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6644706366</x:v>
+        <x:v>45918.1144121528</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45918.1144121528</x:v>
+        <x:v>45909.9111371528</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.9111371528</x:v>
+        <x:v>45906.6644580208</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6644580208</x:v>
+        <x:v>45906.6644394676</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6644394676</x:v>
+        <x:v>45912.3308900463</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.3308900463</x:v>
+        <x:v>45927.4203751157</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>

--- a/downloaded_files/CMPS446_Tutorial-35548.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35548.xlsx
@@ -195,6 +195,15 @@
     <x:t>Omar Ashraf Moursi Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر طارق رفعت محمد عبداللاه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Tarek Refaat Mohamed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1220134</x:t>
   </x:si>
   <x:si>
@@ -211,15 +220,6 @@
   </x:si>
   <x:si>
     <x:t>Amr Ehab Mokhtar</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>فاطمه عبدالعزيز محمد عبده</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
     <x:t>1220073</x:t>
@@ -1392,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6642892014</x:v>
+        <x:v>45929.6213293634</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6650642708</x:v>
+        <x:v>45906.6642892014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.7443521644</x:v>
+        <x:v>45906.6650642708</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>

--- a/downloaded_files/CMPS446_Tutorial-35548.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35548.xlsx
@@ -147,7 +147,7 @@
     <x:t>عبدالرحمن سامح عبد العظيم محمد على</x:t>
   </x:si>
   <x:si>
-    <x:t>abdelrahman sameh abdelazeem</x:t>
+    <x:t>ABDELRAHMAN SAMEH ABDELAZEEM MOHAMED ALY</x:t>
   </x:si>
   <x:si>
     <x:t>1220255</x:t>
@@ -165,7 +165,7 @@
     <x:t>عبدالرحمن مصطفى محمد رضوان احمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdelrahman Mostafa Mohammed radwan</x:t>
+    <x:t>ABDELRAHMAN MOSTAFA MOHAMMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1210252</x:t>
@@ -300,7 +300,7 @@
     <x:t>مصطفى ايهاب حلمي محمد رضوان</x:t>
   </x:si>
   <x:si>
-    <x:t>Mostafa Ehab Helmy Mohamed Radwan</x:t>
+    <x:t>MOSTAFA EHAB HELMY MOHAMED RADWAN</x:t>
   </x:si>
   <x:si>
     <x:t>1210313</x:t>

--- a/downloaded_files/CMPS446_Tutorial-35548.xlsx
+++ b/downloaded_files/CMPS446_Tutorial-35548.xlsx
@@ -282,7 +282,7 @@
     <x:t>محمد عمرو ابراهيم المصري</x:t>
   </x:si>
   <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
+    <x:t>Mohamed Amr Ibrahim Elmasry</x:t>
   </x:si>
   <x:si>
     <x:t>1220278</x:t>
